--- a/Repeating formulas.xlsx
+++ b/Repeating formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khairul Basar\Documents\B001_MCTC_Mukundapur\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41B965-484E-42DC-8DE2-6082BB8CC467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02328F47-CEBA-430D-82B7-664E923B626B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>SKU</t>
   </si>
@@ -261,6 +261,33 @@
   </si>
   <si>
     <t>if</t>
+  </si>
+  <si>
+    <t>Lab1</t>
+  </si>
+  <si>
+    <t>Lab2</t>
+  </si>
+  <si>
+    <t>Lab3</t>
+  </si>
+  <si>
+    <t>Lab4</t>
+  </si>
+  <si>
+    <t>Lab5</t>
+  </si>
+  <si>
+    <t>Lab6</t>
+  </si>
+  <si>
+    <t>Lab7</t>
+  </si>
+  <si>
+    <t>Lab8</t>
+  </si>
+  <si>
+    <t>Lab9</t>
   </si>
 </sst>
 </file>
@@ -792,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1057,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>61</v>
       </c>
@@ -1044,7 +1071,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
@@ -1054,12 +1084,15 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <f>C18*D18</f>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1073,12 +1106,15 @@
         <f>C19+D19</f>
         <v>8</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <f>SUM(C19:D19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
@@ -1088,12 +1124,15 @@
       <c r="D20">
         <v>32</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <f>AVERAGE(D20,C20)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
@@ -1109,12 +1148,15 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <f>SUMIF(C17:F17,E17,C23:F23)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -1127,21 +1169,30 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <f>COUNT(C24:E24)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
       <c r="B25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
         <f>COUNTBLANK(C25:E25)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>69</v>
       </c>
@@ -1154,12 +1205,15 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <f>COUNTIF(C27:E27,E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
       <c r="B27" s="8" t="s">
         <v>70</v>
       </c>
@@ -1169,12 +1223,15 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="8" t="str">
         <f>CONCATENATE(C27,D27)</f>
         <v>abcnnn</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
       <c r="B28" s="8" t="s">
         <v>73</v>
       </c>
@@ -1184,7 +1241,7 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(C28=D28,"yes", "No")</f>
         <v>No</v>
       </c>
@@ -1202,7 +1259,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
